--- a/core-boards/diagnostics-main/Parts List.xlsx
+++ b/core-boards/diagnostics-main/Parts List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\OneDrive\Desktop\IGVC &amp; RJ\diagnostics-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\Desktop\IGVC\igvc-electrical\core-boards\diagnostics-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_F25DC773A252ABDACC104842191D55F85BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE3D156D-981A-4F17-B2C3-A881B150BEE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B91A56-3370-400E-8106-8702C9321A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1815" windowWidth="28800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23445" yWindow="645" windowWidth="28800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Part</t>
   </si>
@@ -51,18 +51,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Resistor (10k)</t>
-  </si>
-  <si>
-    <t>Capicator (22pF)</t>
-  </si>
-  <si>
-    <t>Capicator (.01uF)</t>
-  </si>
-  <si>
-    <t>Capicator (.1uF)</t>
-  </si>
-  <si>
     <t>KMR2</t>
   </si>
   <si>
@@ -84,15 +72,6 @@
     <t>https://www.digikey.com/product-detail/en/molex/0705430004/WM4803-ND/114927</t>
   </si>
   <si>
-    <t>SD Card</t>
-  </si>
-  <si>
-    <t>5 pin Connector</t>
-  </si>
-  <si>
-    <t>ATMEGA2560</t>
-  </si>
-  <si>
     <t xml:space="preserve">	A118090TR-ND</t>
   </si>
   <si>
@@ -111,27 +90,12 @@
     <t>https://www.digikey.com/product-detail/en/3m/30306-6002HB/3M15451-ND/1237391</t>
   </si>
   <si>
-    <t>O603</t>
-  </si>
-  <si>
-    <t>O402</t>
-  </si>
-  <si>
-    <t>CAN BUS</t>
-  </si>
-  <si>
     <t>497-3930-1-ND</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/texas-instruments/LM1085ISX-5.0-NOPB/296-35391-1-ND/3739095</t>
   </si>
   <si>
-    <t>Voltage Regulator (12-&gt;5)</t>
-  </si>
-  <si>
-    <t>Voltage Regulator (5-&gt;3v3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">	LP2985IM5X-3.3/NOPBCT-ND</t>
   </si>
   <si>
@@ -144,9 +108,6 @@
     <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP2551T-I-SN/MCP2551T-I-SNCT-ND/9698145</t>
   </si>
   <si>
-    <t>3 pin Connector</t>
-  </si>
-  <si>
     <t>WM4900-ND</t>
   </si>
   <si>
@@ -159,19 +120,136 @@
     <t>https://www.digikey.com/product-detail/en/texas-instruments/TXB0106PWR/296-23759-1-ND/1951146</t>
   </si>
   <si>
-    <t>2 pin Connector</t>
-  </si>
-  <si>
     <t>455-1648-ND</t>
   </si>
   <si>
     <t>https://www.amazon.com/Solu-Wireless-Transceiver-Antenna-Arduino/dp/B00XDL9E64</t>
   </si>
   <si>
-    <t>8 pin radio connector</t>
-  </si>
-  <si>
-    <t>Level Shifter (3v3 &lt;-&gt; 5v)</t>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>Diode (Green)</t>
+  </si>
+  <si>
+    <t>LED-0603</t>
+  </si>
+  <si>
+    <t>Resistor(10k)</t>
+  </si>
+  <si>
+    <t>Resistor(2.2k)</t>
+  </si>
+  <si>
+    <t>Resistor(1k)</t>
+  </si>
+  <si>
+    <t>Resistor(120)</t>
+  </si>
+  <si>
+    <t>Capacitor(22pF)</t>
+  </si>
+  <si>
+    <t>Capacitor(.01uF)</t>
+  </si>
+  <si>
+    <t>Capacitor(.1uF)</t>
+  </si>
+  <si>
+    <t>Capacitor(1uF)</t>
+  </si>
+  <si>
+    <t>Capacitor(2.2uF)</t>
+  </si>
+  <si>
+    <t>Capacitor(10uF)</t>
+  </si>
+  <si>
+    <t>Can Bus</t>
+  </si>
+  <si>
+    <t>SD Card Reader</t>
+  </si>
+  <si>
+    <t>Level Shifter (3v3 &lt;-&gt; 5v w/ 4 channels)</t>
+  </si>
+  <si>
+    <t>Level Shifter (3v3 &lt;-&gt; 5v w/ 6 channels)</t>
+  </si>
+  <si>
+    <t>Voltage Regulator (12v - 5v)</t>
+  </si>
+  <si>
+    <t>Voltage Regulator (5v - 3v3)</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>2x4 Pin Connector</t>
+  </si>
+  <si>
+    <t>6 Pin Connector</t>
+  </si>
+  <si>
+    <t>5 Pin Connector</t>
+  </si>
+  <si>
+    <t>3 Pin Connector</t>
+  </si>
+  <si>
+    <t>2 Pin Connector (Power)</t>
+  </si>
+  <si>
+    <t>CC1101</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/c-k/KMR211GLFS/401-1426-2-ND/550475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	401-1426-2-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=455-1648-ND</t>
+  </si>
+  <si>
+    <t>311-1596-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	490-10390-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1276-1182-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1085-1-ND</t>
+  </si>
+  <si>
+    <t>1276-2405-1-ND</t>
+  </si>
+  <si>
+    <t>490-17301-1-ND</t>
+  </si>
+  <si>
+    <t>311-10.0KLRCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	311-2.20KLRCT-ND</t>
+  </si>
+  <si>
+    <t>311-1.00KLRCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	311-120NCT-ND</t>
+  </si>
+  <si>
+    <t>P13485CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/LNJ326W83RA/P13485CT-ND/970685</t>
   </si>
 </sst>
 </file>
@@ -216,8 +294,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,6 +308,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,394 +591,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="108">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
@@ -903,56 +1359,78 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{7A743619-C3BC-4202-A497-B0EDC40287FD}"/>
-    <hyperlink ref="G8" r:id="rId2" xr:uid="{3D7C49D4-4F32-4BFB-AF3B-B0BD3E914018}"/>
-    <hyperlink ref="G9" r:id="rId3" xr:uid="{C0A09096-CD70-45B0-9A0A-702CD4A7C725}"/>
-    <hyperlink ref="G11" r:id="rId4" xr:uid="{0A8F477A-5942-4AE9-A809-2DD4021E1DCF}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{9F331A6B-8913-4A76-9EFE-D4D53A6A743D}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{72DE800C-014B-4D3E-BEEA-2DC99BD1BB09}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{1254CE07-BFBE-408C-9B6E-EE9068F101FF}"/>
-    <hyperlink ref="G15" r:id="rId8" xr:uid="{2533924A-8164-4AD2-B99A-11AF85C3A3F6}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{5B9B7A1A-9DDB-401B-B219-5001DF64B60A}"/>
-    <hyperlink ref="G18" r:id="rId10" xr:uid="{4C5D30EB-45B1-4878-99C6-168B6074828E}"/>
-    <hyperlink ref="G10" r:id="rId11" xr:uid="{8FDA855B-F2D0-442E-961B-F5DF73B4CEF5}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9261528D-4333-4409-BEC6-1CC0064F12C8}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{709F170B-B6EA-472A-A53F-7AF1DA64CA86}"/>
+    <hyperlink ref="G18" r:id="rId3" xr:uid="{B33CA942-1C63-45CE-B54F-7F8D6A47BA95}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{E2F01214-0692-4C2B-B219-82D0BF531D16}"/>
+    <hyperlink ref="G17" r:id="rId5" xr:uid="{90C71A44-4BA1-4972-974B-92B1612529B6}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{524E58BE-8A02-43D4-A569-ABD1E232EE42}"/>
+    <hyperlink ref="G20" r:id="rId7" xr:uid="{A18FA11E-D65A-4714-845F-D144E2FC1382}"/>
+    <hyperlink ref="G21" r:id="rId8" xr:uid="{220FD5FF-AAC7-494B-B9E2-3DEA3AFD5A97}"/>
+    <hyperlink ref="G23" r:id="rId9" xr:uid="{E52369FE-06F1-46B5-83CA-3F819083DC7F}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{53BC3518-9AC4-48F1-A050-893104B9FEBD}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{770FE41E-CFC3-4C0D-AAA7-85C72859D70A}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{393BAEBD-2BA3-4438-A438-08B744ABB411}"/>
+    <hyperlink ref="G27" r:id="rId13" xr:uid="{51514511-80E4-4958-BEB4-E72035065C96}"/>
+    <hyperlink ref="G26" r:id="rId14" xr:uid="{08941B07-5AB6-401A-BEB5-CFBDE5503F5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/core-boards/diagnostics-main/Parts List.xlsx
+++ b/core-boards/diagnostics-main/Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\Desktop\IGVC\igvc-electrical\core-boards\diagnostics-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\OneDrive\Documents\GitHub\igvc-electrical\core-boards\diagnostics-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B91A56-3370-400E-8106-8702C9321A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{90B91A56-3370-400E-8106-8702C9321A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7353C8C1-E9A2-4134-8146-43EEF9F9F5F4}"/>
   <bookViews>
-    <workbookView xWindow="23445" yWindow="645" windowWidth="28800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Part</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/LNJ326W83RA/P13485CT-ND/970685</t>
+  </si>
+  <si>
+    <t>2 Pin Connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex/0022232021/900-0022232021-ND/26667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	900-0022232021-ND</t>
   </si>
 </sst>
 </file>
@@ -302,14 +311,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -593,779 +602,752 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="5"/>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6">
         <v>10</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="5"/>
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="5"/>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="6"/>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="6"/>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="5"/>
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="6"/>
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="5"/>
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="6"/>
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="6"/>
       <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="5"/>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="5"/>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="5"/>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="5"/>
       <c r="I27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
+  <mergeCells count="110">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -1390,29 +1372,67 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{9261528D-4333-4409-BEC6-1CC0064F12C8}"/>
@@ -1429,8 +1449,9 @@
     <hyperlink ref="G13" r:id="rId12" xr:uid="{393BAEBD-2BA3-4438-A438-08B744ABB411}"/>
     <hyperlink ref="G27" r:id="rId13" xr:uid="{51514511-80E4-4958-BEB4-E72035065C96}"/>
     <hyperlink ref="G26" r:id="rId14" xr:uid="{08941B07-5AB6-401A-BEB5-CFBDE5503F5D}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{F7B9199A-AE3A-4F6C-AEDA-1F3C7857956F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/core-boards/diagnostics-main/Parts List.xlsx
+++ b/core-boards/diagnostics-main/Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\OneDrive\Documents\GitHub\igvc-electrical\core-boards\diagnostics-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\Desktop\IGVC\igvc-electrical\core-boards\diagnostics-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{90B91A56-3370-400E-8106-8702C9321A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7353C8C1-E9A2-4134-8146-43EEF9F9F5F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCFE53-9413-4810-B564-07CAECA17986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Part</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Radio</t>
   </si>
   <si>
-    <t>WM4803-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex/0705430004/WM4803-ND/114927</t>
-  </si>
-  <si>
     <t xml:space="preserve">	A118090TR-ND</t>
   </si>
   <si>
@@ -108,12 +102,6 @@
     <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP2551T-I-SN/MCP2551T-I-SNCT-ND/9698145</t>
   </si>
   <si>
-    <t>WM4900-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex/0705530001/WM4900-ND/114951</t>
-  </si>
-  <si>
     <t>296-23759-1-ND</t>
   </si>
   <si>
@@ -250,15 +238,6 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/LNJ326W83RA/P13485CT-ND/970685</t>
-  </si>
-  <si>
-    <t>2 Pin Connector</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex/0022232021/900-0022232021-ND/26667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	900-0022232021-ND</t>
   </si>
 </sst>
 </file>
@@ -602,13 +581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -638,7 +617,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -665,17 +644,17 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -692,17 +671,17 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -719,17 +698,17 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -746,17 +725,17 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -773,17 +752,17 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -800,17 +779,17 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -827,17 +806,17 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -854,17 +833,17 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -881,17 +860,17 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -908,17 +887,17 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -935,21 +914,21 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13">
@@ -964,13 +943,13 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
@@ -978,7 +957,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14">
@@ -993,19 +972,19 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15">
@@ -1020,19 +999,19 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16">
@@ -1047,19 +1026,19 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17">
@@ -1074,19 +1053,19 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18">
@@ -1101,19 +1080,19 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19">
@@ -1128,19 +1107,19 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20">
@@ -1155,51 +1134,51 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
@@ -1207,16 +1186,16 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1229,9 +1208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1244,64 +1223,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="5"/>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="5"/>
       <c r="I27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>75</v>
-      </c>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1311,7 +1273,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1322,9 +1284,7 @@
       <c r="H30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:H28"/>
+  <mergeCells count="108">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C1:D1"/>
@@ -1445,13 +1405,10 @@
     <hyperlink ref="G21" r:id="rId8" xr:uid="{220FD5FF-AAC7-494B-B9E2-3DEA3AFD5A97}"/>
     <hyperlink ref="G23" r:id="rId9" xr:uid="{E52369FE-06F1-46B5-83CA-3F819083DC7F}"/>
     <hyperlink ref="G14" r:id="rId10" xr:uid="{53BC3518-9AC4-48F1-A050-893104B9FEBD}"/>
-    <hyperlink ref="G22" r:id="rId11" xr:uid="{770FE41E-CFC3-4C0D-AAA7-85C72859D70A}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{393BAEBD-2BA3-4438-A438-08B744ABB411}"/>
-    <hyperlink ref="G27" r:id="rId13" xr:uid="{51514511-80E4-4958-BEB4-E72035065C96}"/>
-    <hyperlink ref="G26" r:id="rId14" xr:uid="{08941B07-5AB6-401A-BEB5-CFBDE5503F5D}"/>
-    <hyperlink ref="G28" r:id="rId15" xr:uid="{F7B9199A-AE3A-4F6C-AEDA-1F3C7857956F}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{393BAEBD-2BA3-4438-A438-08B744ABB411}"/>
+    <hyperlink ref="G22" r:id="rId12" xr:uid="{770FE41E-CFC3-4C0D-AAA7-85C72859D70A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/core-boards/diagnostics-main/Parts List.xlsx
+++ b/core-boards/diagnostics-main/Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\Desktop\IGVC\igvc-electrical\core-boards\diagnostics-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\OneDrive\Documents\GitHub\igvc-electrical\core-boards\diagnostics-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCFE53-9413-4810-B564-07CAECA17986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{90B91A56-3370-400E-8106-8702C9321A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7353C8C1-E9A2-4134-8146-43EEF9F9F5F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Part</t>
   </si>
@@ -66,6 +66,12 @@
     <t>Radio</t>
   </si>
   <si>
+    <t>WM4803-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex/0705430004/WM4803-ND/114927</t>
+  </si>
+  <si>
     <t xml:space="preserve">	A118090TR-ND</t>
   </si>
   <si>
@@ -102,6 +108,12 @@
     <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP2551T-I-SN/MCP2551T-I-SNCT-ND/9698145</t>
   </si>
   <si>
+    <t>WM4900-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex/0705530001/WM4900-ND/114951</t>
+  </si>
+  <si>
     <t>296-23759-1-ND</t>
   </si>
   <si>
@@ -238,6 +250,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/LNJ326W83RA/P13485CT-ND/970685</t>
+  </si>
+  <si>
+    <t>2 Pin Connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex/0022232021/900-0022232021-ND/26667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	900-0022232021-ND</t>
   </si>
 </sst>
 </file>
@@ -581,13 +602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -617,7 +638,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -644,17 +665,17 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -671,17 +692,17 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -698,17 +719,17 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -725,17 +746,17 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -752,17 +773,17 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -779,17 +800,17 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -806,17 +827,17 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -833,17 +854,17 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -860,17 +881,17 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -887,17 +908,17 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -914,21 +935,21 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13">
@@ -943,13 +964,13 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
@@ -957,7 +978,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14">
@@ -972,19 +993,19 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15">
@@ -999,19 +1020,19 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16">
@@ -1026,19 +1047,19 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17">
@@ -1053,19 +1074,19 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18">
@@ -1080,19 +1101,19 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19">
@@ -1107,19 +1128,19 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20">
@@ -1134,51 +1155,51 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H22" s="5"/>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
@@ -1186,16 +1207,16 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1208,9 +1229,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1223,47 +1244,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1273,7 +1311,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1284,7 +1322,9 @@
       <c r="H30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="110">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C1:D1"/>
@@ -1405,10 +1445,13 @@
     <hyperlink ref="G21" r:id="rId8" xr:uid="{220FD5FF-AAC7-494B-B9E2-3DEA3AFD5A97}"/>
     <hyperlink ref="G23" r:id="rId9" xr:uid="{E52369FE-06F1-46B5-83CA-3F819083DC7F}"/>
     <hyperlink ref="G14" r:id="rId10" xr:uid="{53BC3518-9AC4-48F1-A050-893104B9FEBD}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{393BAEBD-2BA3-4438-A438-08B744ABB411}"/>
-    <hyperlink ref="G22" r:id="rId12" xr:uid="{770FE41E-CFC3-4C0D-AAA7-85C72859D70A}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{770FE41E-CFC3-4C0D-AAA7-85C72859D70A}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{393BAEBD-2BA3-4438-A438-08B744ABB411}"/>
+    <hyperlink ref="G27" r:id="rId13" xr:uid="{51514511-80E4-4958-BEB4-E72035065C96}"/>
+    <hyperlink ref="G26" r:id="rId14" xr:uid="{08941B07-5AB6-401A-BEB5-CFBDE5503F5D}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{F7B9199A-AE3A-4F6C-AEDA-1F3C7857956F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/core-boards/diagnostics-main/Parts List.xlsx
+++ b/core-boards/diagnostics-main/Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\OneDrive\Documents\GitHub\igvc-electrical\core-boards\diagnostics-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drwar\Desktop\IGVC\igvc-electrical\core-boards\diagnostics-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{90B91A56-3370-400E-8106-8702C9321A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7353C8C1-E9A2-4134-8146-43EEF9F9F5F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C4AA1-540B-4C9E-B593-018B6BA187A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Part</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t xml:space="preserve">	900-0022232021-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP2515T-I-ST/MCP2515T-I-STCT-ND/4307903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	MCP2515T-I/STCT-ND</t>
+  </si>
+  <si>
+    <t>Can Controller</t>
   </si>
 </sst>
 </file>
@@ -600,15 +609,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -638,7 +651,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -665,7 +678,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -692,7 +705,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -719,7 +732,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -746,7 +759,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -773,7 +786,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -800,7 +813,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -827,7 +840,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -854,7 +867,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -881,7 +894,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -908,7 +921,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -935,7 +948,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -964,7 +977,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -993,7 +1006,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -1020,21 +1033,21 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16">
         <v>1</v>
       </c>
@@ -1047,21 +1060,21 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17">
         <v>1</v>
       </c>
@@ -1072,23 +1085,23 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18">
         <v>1</v>
       </c>
@@ -1101,21 +1114,21 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19">
         <v>1</v>
       </c>
@@ -1125,24 +1138,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20">
         <v>1</v>
       </c>
@@ -1155,83 +1168,95 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1244,74 +1269,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="6" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1321,39 +1351,91 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="114">
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -1368,90 +1450,53 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{9261528D-4333-4409-BEC6-1CC0064F12C8}"/>
-    <hyperlink ref="G19" r:id="rId2" xr:uid="{709F170B-B6EA-472A-A53F-7AF1DA64CA86}"/>
-    <hyperlink ref="G18" r:id="rId3" xr:uid="{B33CA942-1C63-45CE-B54F-7F8D6A47BA95}"/>
-    <hyperlink ref="G16" r:id="rId4" xr:uid="{E2F01214-0692-4C2B-B219-82D0BF531D16}"/>
-    <hyperlink ref="G17" r:id="rId5" xr:uid="{90C71A44-4BA1-4972-974B-92B1612529B6}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{709F170B-B6EA-472A-A53F-7AF1DA64CA86}"/>
+    <hyperlink ref="G19" r:id="rId3" xr:uid="{B33CA942-1C63-45CE-B54F-7F8D6A47BA95}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{E2F01214-0692-4C2B-B219-82D0BF531D16}"/>
+    <hyperlink ref="G18" r:id="rId5" xr:uid="{90C71A44-4BA1-4972-974B-92B1612529B6}"/>
     <hyperlink ref="G15" r:id="rId6" xr:uid="{524E58BE-8A02-43D4-A569-ABD1E232EE42}"/>
-    <hyperlink ref="G20" r:id="rId7" xr:uid="{A18FA11E-D65A-4714-845F-D144E2FC1382}"/>
-    <hyperlink ref="G21" r:id="rId8" xr:uid="{220FD5FF-AAC7-494B-B9E2-3DEA3AFD5A97}"/>
-    <hyperlink ref="G23" r:id="rId9" xr:uid="{E52369FE-06F1-46B5-83CA-3F819083DC7F}"/>
+    <hyperlink ref="G21" r:id="rId7" xr:uid="{A18FA11E-D65A-4714-845F-D144E2FC1382}"/>
+    <hyperlink ref="G22" r:id="rId8" xr:uid="{220FD5FF-AAC7-494B-B9E2-3DEA3AFD5A97}"/>
+    <hyperlink ref="G24" r:id="rId9" xr:uid="{E52369FE-06F1-46B5-83CA-3F819083DC7F}"/>
     <hyperlink ref="G14" r:id="rId10" xr:uid="{53BC3518-9AC4-48F1-A050-893104B9FEBD}"/>
-    <hyperlink ref="G22" r:id="rId11" xr:uid="{770FE41E-CFC3-4C0D-AAA7-85C72859D70A}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{770FE41E-CFC3-4C0D-AAA7-85C72859D70A}"/>
     <hyperlink ref="G13" r:id="rId12" xr:uid="{393BAEBD-2BA3-4438-A438-08B744ABB411}"/>
-    <hyperlink ref="G27" r:id="rId13" xr:uid="{51514511-80E4-4958-BEB4-E72035065C96}"/>
-    <hyperlink ref="G26" r:id="rId14" xr:uid="{08941B07-5AB6-401A-BEB5-CFBDE5503F5D}"/>
-    <hyperlink ref="G28" r:id="rId15" xr:uid="{F7B9199A-AE3A-4F6C-AEDA-1F3C7857956F}"/>
+    <hyperlink ref="G28" r:id="rId13" xr:uid="{51514511-80E4-4958-BEB4-E72035065C96}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{08941B07-5AB6-401A-BEB5-CFBDE5503F5D}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{F7B9199A-AE3A-4F6C-AEDA-1F3C7857956F}"/>
+    <hyperlink ref="G16" r:id="rId16" xr:uid="{001CF274-75CF-412C-9247-FA7E13119919}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>